--- a/fhir/ig/tei/0.2.2/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/fhir/ig/tei/0.2.2/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2-ballot</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:18:25-03:00</t>
+    <t>2026-02-19T12:27:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.2/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/fhir/ig/tei/0.2.2/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:27:42-03:00</t>
+    <t>2026-02-19T15:23:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
